--- a/QA/Preston_Activity-1.xlsx
+++ b/QA/Preston_Activity-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preston Fernandes\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Zeus Learning\Training\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>For www.zeuslearning.com</t>
   </si>
@@ -93,16 +93,27 @@
   </si>
   <si>
     <t>22. On clicking the send button without entering the required info in intended format highlights the problems in red and doesn’t allow to proceed</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +136,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +547,15 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>